--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Vacaciones_keytronics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BD82DD-A5B5-4582-8A5C-58F0852A76BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FC73D-372C-4B44-BB92-B791153D69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{2017387C-E726-409B-B94E-7E99E2D436B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2017387C-E726-409B-B94E-7E99E2D436B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -57,53 +57,371 @@
     <t>dias_vacaciones</t>
   </si>
   <si>
-    <t>Jose de Jesus Luna Sanchez</t>
-  </si>
-  <si>
-    <t>Servicio al cliente</t>
-  </si>
-  <si>
-    <t>admin@empresa.com</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>trabajador@empresa.com</t>
-  </si>
-  <si>
     <t>trabajador</t>
   </si>
   <si>
-    <t>responsable@empresa.com</t>
-  </si>
-  <si>
     <t>responsable</t>
+  </si>
+  <si>
+    <t>AARON AMADO LUNA</t>
+  </si>
+  <si>
+    <t>RAUL CARBAJAL VILCHIS</t>
+  </si>
+  <si>
+    <t>ALEJANDRO DE JESUS CASTILLO</t>
+  </si>
+  <si>
+    <t>ALEJANDRO DURAN PINEDA</t>
+  </si>
+  <si>
+    <t>JOSE ALBERTO ECHAVARRIA VALLES</t>
+  </si>
+  <si>
+    <t>JULIO CESAR FILIO MALDONADO</t>
+  </si>
+  <si>
+    <t>JOSE IVAN GARCIA ARREOLA</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS GARCIA ARREOLA</t>
+  </si>
+  <si>
+    <t>MIGUEL GARNICA MIRANDA</t>
+  </si>
+  <si>
+    <t>RHANDALL JIMENEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>LAURA MARQUEZ VIDES</t>
+  </si>
+  <si>
+    <t>VIRGILIO GIOVANNI MARTINEZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>BRENDA MUÑOZ GARRIDO</t>
+  </si>
+  <si>
+    <t>FERNANDO CORDOVA CRUZ</t>
+  </si>
+  <si>
+    <t>VIDAL CAMACHO MONDRAGON</t>
+  </si>
+  <si>
+    <t>OSCAR MORALES MARTINEZ</t>
+  </si>
+  <si>
+    <t>GREGORIO ROJAS CRUZ</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL UBALDO REYES</t>
+  </si>
+  <si>
+    <t>DAVID VARGAS LOPEZ</t>
+  </si>
+  <si>
+    <t>ORLANDO FLORES GARCIA</t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN ZARATE ESPIRITU</t>
+  </si>
+  <si>
+    <t>JORGE BENUMEA DIAZ</t>
+  </si>
+  <si>
+    <t>JORGE CARLOS JIMENEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>KIMBERLY VEGA MADRID</t>
+  </si>
+  <si>
+    <t>KARINA SIKEN GARCIA GARCIA</t>
+  </si>
+  <si>
+    <t>OCTAVIO CORONA CORRAL</t>
+  </si>
+  <si>
+    <t>JOSÉ DE JESÚS LUNA SANCHEZ</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL SOTO FERNANDEZ</t>
+  </si>
+  <si>
+    <t>MANUEL GUADALUPE ARIZA CRUZ</t>
+  </si>
+  <si>
+    <t>NOE ORTEGA SANCHEZ</t>
+  </si>
+  <si>
+    <t>HUMBERTO COLIN GUERRERO</t>
+  </si>
+  <si>
+    <t>GRACIELA CRUZ MONDRAGÓN</t>
+  </si>
+  <si>
+    <t>ALFONSO CAMPO</t>
+  </si>
+  <si>
+    <t>AAMADO</t>
+  </si>
+  <si>
+    <t>ADURAN</t>
+  </si>
+  <si>
+    <t>RCARBAJAL</t>
+  </si>
+  <si>
+    <t>JECHAVARRIA</t>
+  </si>
+  <si>
+    <t>JFILIO</t>
+  </si>
+  <si>
+    <t>JGARCIA</t>
+  </si>
+  <si>
+    <t>MGARNICA</t>
+  </si>
+  <si>
+    <t>RJIMENEZ</t>
+  </si>
+  <si>
+    <t>LMARQUEZ</t>
+  </si>
+  <si>
+    <t>BMUÑOZ</t>
+  </si>
+  <si>
+    <t>FCORDOVA</t>
+  </si>
+  <si>
+    <t>VCAMACHO</t>
+  </si>
+  <si>
+    <t>OMORALES</t>
+  </si>
+  <si>
+    <t>GROJAS</t>
+  </si>
+  <si>
+    <t>MUBALDO</t>
+  </si>
+  <si>
+    <t>DVARGAS</t>
+  </si>
+  <si>
+    <t>OFLORES</t>
+  </si>
+  <si>
+    <t>JZARATE</t>
+  </si>
+  <si>
+    <t>JBENUMEA</t>
+  </si>
+  <si>
+    <t>JJIMENEZ</t>
+  </si>
+  <si>
+    <t>ACASTILLO</t>
+  </si>
+  <si>
+    <t>IGARCIA</t>
+  </si>
+  <si>
+    <t>GMARTINEZ</t>
+  </si>
+  <si>
+    <t>OMORALESR</t>
+  </si>
+  <si>
+    <t>DVARGASR</t>
+  </si>
+  <si>
+    <t>KVEGA</t>
+  </si>
+  <si>
+    <t>KGARCIA</t>
+  </si>
+  <si>
+    <t>OCORONA</t>
+  </si>
+  <si>
+    <t>JLUNA</t>
+  </si>
+  <si>
+    <t>JLUNAA</t>
+  </si>
+  <si>
+    <t>MSOTO</t>
+  </si>
+  <si>
+    <t>MARIZA</t>
+  </si>
+  <si>
+    <t>NORTEGA</t>
+  </si>
+  <si>
+    <t>HCOLIN</t>
+  </si>
+  <si>
+    <t>HCOLINR</t>
+  </si>
+  <si>
+    <t>GCRUZ</t>
+  </si>
+  <si>
+    <t>ACAMPO</t>
+  </si>
+  <si>
+    <t>JECHAVARRIAA</t>
+  </si>
+  <si>
+    <t>Aamado.2025!</t>
+  </si>
+  <si>
+    <t>Rcarbajal#25</t>
+  </si>
+  <si>
+    <t>Acastillo*99</t>
+  </si>
+  <si>
+    <t>Aduran_2025</t>
+  </si>
+  <si>
+    <t>Jechavarriaa+1</t>
+  </si>
+  <si>
+    <t>Jechavarria-2</t>
+  </si>
+  <si>
+    <t>Jfilio$2025</t>
+  </si>
+  <si>
+    <t>Igarcia@Safe</t>
+  </si>
+  <si>
+    <t>Jgarcia@Safe</t>
+  </si>
+  <si>
+    <t>Mgarnica.77</t>
+  </si>
+  <si>
+    <t>Rjimenez!20</t>
+  </si>
+  <si>
+    <t>Lmarquez#91</t>
+  </si>
+  <si>
+    <t>Gmartinez*25</t>
+  </si>
+  <si>
+    <t>Bmunoz_2025</t>
+  </si>
+  <si>
+    <t>Fcordova+88</t>
+  </si>
+  <si>
+    <t>Vcamacho$12</t>
+  </si>
+  <si>
+    <t>Omorales@01</t>
+  </si>
+  <si>
+    <t>Omoralesr@02</t>
+  </si>
+  <si>
+    <t>Grojas.2025</t>
+  </si>
+  <si>
+    <t>Mubaldo#Secure</t>
+  </si>
+  <si>
+    <t>Dvargas!100</t>
+  </si>
+  <si>
+    <t>Dvargasr!200</t>
+  </si>
+  <si>
+    <t>Oflores*44</t>
+  </si>
+  <si>
+    <t>Jzarate_25</t>
+  </si>
+  <si>
+    <t>Jbenumea+7</t>
+  </si>
+  <si>
+    <t>Jjimenez$22</t>
+  </si>
+  <si>
+    <t>Kvega.Admin1</t>
+  </si>
+  <si>
+    <t>Kgarcia.Admin2</t>
+  </si>
+  <si>
+    <t>Ocorona#2025</t>
+  </si>
+  <si>
+    <t>Msoto_Safe25</t>
+  </si>
+  <si>
+    <t>Mariza+2025</t>
+  </si>
+  <si>
+    <t>Nortega$Gold</t>
+  </si>
+  <si>
+    <t>Hcolin!Alpha</t>
+  </si>
+  <si>
+    <t>Hcolinr!Beta</t>
+  </si>
+  <si>
+    <t>Gcruz.2025#</t>
+  </si>
+  <si>
+    <t>Acampo*2025</t>
+  </si>
+  <si>
+    <t>Tecnico</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Almacen</t>
+  </si>
+  <si>
+    <t>Cobranza</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>Contador</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>JLUNAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,17 +444,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,13 +765,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D3138F-A59F-4455-A300-0E09E802E78B}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -485,76 +806,786 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1234</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1234</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1234</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0847B960-844F-4DAE-A4A3-6634B312F537}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E66FDB96-EAE7-4925-A3A3-377B360EBA92}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{1713EE9A-64EF-479E-A285-B9570245B89A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Vacaciones_keytronics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FC73D-372C-4B44-BB92-B791153D69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC0DC2-F14C-4108-81A2-2BB618473270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2017387C-E726-409B-B94E-7E99E2D436B1}"/>
   </bookViews>
@@ -165,120 +165,6 @@
     <t>ALFONSO CAMPO</t>
   </si>
   <si>
-    <t>AAMADO</t>
-  </si>
-  <si>
-    <t>ADURAN</t>
-  </si>
-  <si>
-    <t>RCARBAJAL</t>
-  </si>
-  <si>
-    <t>JECHAVARRIA</t>
-  </si>
-  <si>
-    <t>JFILIO</t>
-  </si>
-  <si>
-    <t>JGARCIA</t>
-  </si>
-  <si>
-    <t>MGARNICA</t>
-  </si>
-  <si>
-    <t>RJIMENEZ</t>
-  </si>
-  <si>
-    <t>LMARQUEZ</t>
-  </si>
-  <si>
-    <t>BMUÑOZ</t>
-  </si>
-  <si>
-    <t>FCORDOVA</t>
-  </si>
-  <si>
-    <t>VCAMACHO</t>
-  </si>
-  <si>
-    <t>OMORALES</t>
-  </si>
-  <si>
-    <t>GROJAS</t>
-  </si>
-  <si>
-    <t>MUBALDO</t>
-  </si>
-  <si>
-    <t>DVARGAS</t>
-  </si>
-  <si>
-    <t>OFLORES</t>
-  </si>
-  <si>
-    <t>JZARATE</t>
-  </si>
-  <si>
-    <t>JBENUMEA</t>
-  </si>
-  <si>
-    <t>JJIMENEZ</t>
-  </si>
-  <si>
-    <t>ACASTILLO</t>
-  </si>
-  <si>
-    <t>IGARCIA</t>
-  </si>
-  <si>
-    <t>GMARTINEZ</t>
-  </si>
-  <si>
-    <t>OMORALESR</t>
-  </si>
-  <si>
-    <t>DVARGASR</t>
-  </si>
-  <si>
-    <t>KVEGA</t>
-  </si>
-  <si>
-    <t>KGARCIA</t>
-  </si>
-  <si>
-    <t>OCORONA</t>
-  </si>
-  <si>
-    <t>JLUNA</t>
-  </si>
-  <si>
-    <t>JLUNAA</t>
-  </si>
-  <si>
-    <t>MSOTO</t>
-  </si>
-  <si>
-    <t>MARIZA</t>
-  </si>
-  <si>
-    <t>NORTEGA</t>
-  </si>
-  <si>
-    <t>HCOLIN</t>
-  </si>
-  <si>
-    <t>HCOLINR</t>
-  </si>
-  <si>
-    <t>GCRUZ</t>
-  </si>
-  <si>
-    <t>ACAMPO</t>
-  </si>
-  <si>
-    <t>JECHAVARRIAA</t>
-  </si>
-  <si>
     <t>Aamado.2025!</t>
   </si>
   <si>
@@ -411,17 +297,139 @@
     <t>Direccion</t>
   </si>
   <si>
-    <t>JLUNAR</t>
+    <t>aamado@empresa.com</t>
+  </si>
+  <si>
+    <t>rcarbajal@empresa.com</t>
+  </si>
+  <si>
+    <t>acastillo@empresa.com</t>
+  </si>
+  <si>
+    <t>aduran@empresa.com</t>
+  </si>
+  <si>
+    <t>jechavarriaa@empresa.com</t>
+  </si>
+  <si>
+    <t>jechavarria@empresa.com</t>
+  </si>
+  <si>
+    <t>jfilio@empresa.com</t>
+  </si>
+  <si>
+    <t>igarcia@empresa.com</t>
+  </si>
+  <si>
+    <t>jgarcia@empresa.com</t>
+  </si>
+  <si>
+    <t>mgarnica@empresa.com</t>
+  </si>
+  <si>
+    <t>rjimenez@empresa.com</t>
+  </si>
+  <si>
+    <t>lmarquez@empresa.com</t>
+  </si>
+  <si>
+    <t>gmartinez@empresa.com</t>
+  </si>
+  <si>
+    <t>bmuñoz@empresa.com</t>
+  </si>
+  <si>
+    <t>fcordova@empresa.com</t>
+  </si>
+  <si>
+    <t>vcamacho@empresa.com</t>
+  </si>
+  <si>
+    <t>omorales@empresa.com</t>
+  </si>
+  <si>
+    <t>omoralesr@empresa.com</t>
+  </si>
+  <si>
+    <t>grojas@empresa.com</t>
+  </si>
+  <si>
+    <t>mubaldo@empresa.com</t>
+  </si>
+  <si>
+    <t>dvargas@empresa.com</t>
+  </si>
+  <si>
+    <t>dvargasr@empresa.com</t>
+  </si>
+  <si>
+    <t>oflores@empresa.com</t>
+  </si>
+  <si>
+    <t>jzarate@empresa.com</t>
+  </si>
+  <si>
+    <t>jbenumea@empresa.com</t>
+  </si>
+  <si>
+    <t>jjimenez@empresa.com</t>
+  </si>
+  <si>
+    <t>kvega@empresa.com</t>
+  </si>
+  <si>
+    <t>kgarcia@empresa.com</t>
+  </si>
+  <si>
+    <t>ocorona@empresa.com</t>
+  </si>
+  <si>
+    <t>jluna@empresa.com</t>
+  </si>
+  <si>
+    <t>jlunar@empresa.com</t>
+  </si>
+  <si>
+    <t>msoto@empresa.com</t>
+  </si>
+  <si>
+    <t>mariza@empresa.com</t>
+  </si>
+  <si>
+    <t>nortega@empresa.com</t>
+  </si>
+  <si>
+    <t>hcolin@empresa.com</t>
+  </si>
+  <si>
+    <t>hcolinr@empresa.com</t>
+  </si>
+  <si>
+    <t>gcruz@empresa.com</t>
+  </si>
+  <si>
+    <t>acampo@empresa.com</t>
+  </si>
+  <si>
+    <t>jlunaa@keytronics.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,15 +452,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D3138F-A59F-4455-A300-0E09E802E78B}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,783 +818,783 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
+      <c r="F3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>117</v>
+      <c r="F4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>117</v>
+      <c r="F5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>118</v>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>117</v>
+      <c r="F8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>117</v>
+      <c r="F9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>117</v>
+      <c r="F10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>117</v>
+      <c r="F11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>117</v>
+      <c r="F12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>122</v>
+      <c r="F14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>117</v>
+      <c r="F16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>122</v>
+      <c r="F19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>123</v>
+      <c r="F23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2">
+        <v>116</v>
+      </c>
+      <c r="D31">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32">
         <v>123456</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33">
+        <v>123456</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
         <v>76</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
         <v>78</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C32" r:id="rId1" xr:uid="{CC007ADD-1529-470E-B90E-F900F5D05F68}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Vacaciones_keytronics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC0DC2-F14C-4108-81A2-2BB618473270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A180F8D-D70E-4A20-9D26-96D7C563F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2017387C-E726-409B-B94E-7E99E2D436B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -54,9 +54,6 @@
     <t>area</t>
   </si>
   <si>
-    <t>dias_vacaciones</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -412,6 +409,18 @@
   </si>
   <si>
     <t>jlunaa@keytronics.com</t>
+  </si>
+  <si>
+    <t>fecha_ingreso</t>
+  </si>
+  <si>
+    <t>correo_notificaciones</t>
+  </si>
+  <si>
+    <t>id_responsable</t>
+  </si>
+  <si>
+    <t>activo</t>
   </si>
 </sst>
 </file>
@@ -456,9 +465,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -774,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D3138F-A59F-4455-A300-0E09E802E78B}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +797,7 @@
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,787 +817,913 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="G22" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32">
         <v>123456</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33">
         <v>123456</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45658</v>
       </c>
     </row>
   </sheetData>

--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Vacaciones_keytronics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A180F8D-D70E-4A20-9D26-96D7C563F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126D343F-61B6-49F4-B895-EDF1008D1278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2017387C-E726-409B-B94E-7E99E2D436B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$C$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -294,120 +297,6 @@
     <t>Direccion</t>
   </si>
   <si>
-    <t>aamado@empresa.com</t>
-  </si>
-  <si>
-    <t>rcarbajal@empresa.com</t>
-  </si>
-  <si>
-    <t>acastillo@empresa.com</t>
-  </si>
-  <si>
-    <t>aduran@empresa.com</t>
-  </si>
-  <si>
-    <t>jechavarriaa@empresa.com</t>
-  </si>
-  <si>
-    <t>jechavarria@empresa.com</t>
-  </si>
-  <si>
-    <t>jfilio@empresa.com</t>
-  </si>
-  <si>
-    <t>igarcia@empresa.com</t>
-  </si>
-  <si>
-    <t>jgarcia@empresa.com</t>
-  </si>
-  <si>
-    <t>mgarnica@empresa.com</t>
-  </si>
-  <si>
-    <t>rjimenez@empresa.com</t>
-  </si>
-  <si>
-    <t>lmarquez@empresa.com</t>
-  </si>
-  <si>
-    <t>gmartinez@empresa.com</t>
-  </si>
-  <si>
-    <t>bmuñoz@empresa.com</t>
-  </si>
-  <si>
-    <t>fcordova@empresa.com</t>
-  </si>
-  <si>
-    <t>vcamacho@empresa.com</t>
-  </si>
-  <si>
-    <t>omorales@empresa.com</t>
-  </si>
-  <si>
-    <t>omoralesr@empresa.com</t>
-  </si>
-  <si>
-    <t>grojas@empresa.com</t>
-  </si>
-  <si>
-    <t>mubaldo@empresa.com</t>
-  </si>
-  <si>
-    <t>dvargas@empresa.com</t>
-  </si>
-  <si>
-    <t>dvargasr@empresa.com</t>
-  </si>
-  <si>
-    <t>oflores@empresa.com</t>
-  </si>
-  <si>
-    <t>jzarate@empresa.com</t>
-  </si>
-  <si>
-    <t>jbenumea@empresa.com</t>
-  </si>
-  <si>
-    <t>jjimenez@empresa.com</t>
-  </si>
-  <si>
-    <t>kvega@empresa.com</t>
-  </si>
-  <si>
-    <t>kgarcia@empresa.com</t>
-  </si>
-  <si>
-    <t>ocorona@empresa.com</t>
-  </si>
-  <si>
-    <t>jluna@empresa.com</t>
-  </si>
-  <si>
-    <t>jlunar@empresa.com</t>
-  </si>
-  <si>
-    <t>msoto@empresa.com</t>
-  </si>
-  <si>
-    <t>mariza@empresa.com</t>
-  </si>
-  <si>
-    <t>nortega@empresa.com</t>
-  </si>
-  <si>
-    <t>hcolin@empresa.com</t>
-  </si>
-  <si>
-    <t>hcolinr@empresa.com</t>
-  </si>
-  <si>
-    <t>gcruz@empresa.com</t>
-  </si>
-  <si>
-    <t>acampo@empresa.com</t>
-  </si>
-  <si>
     <t>jlunaa@keytronics.com</t>
   </si>
   <si>
@@ -421,6 +310,120 @@
   </si>
   <si>
     <t>activo</t>
+  </si>
+  <si>
+    <t>aamado@keytronics.com</t>
+  </si>
+  <si>
+    <t>rcarbajal@keytronics.com</t>
+  </si>
+  <si>
+    <t>acastillo@keytronics.com</t>
+  </si>
+  <si>
+    <t>aduran@keytronics.com</t>
+  </si>
+  <si>
+    <t>jechavarriaa@keytronics.com</t>
+  </si>
+  <si>
+    <t>jechavarria@keytronics.com</t>
+  </si>
+  <si>
+    <t>jfilio@keytronics.com</t>
+  </si>
+  <si>
+    <t>igarcia@keytronics.com</t>
+  </si>
+  <si>
+    <t>jgarcia@keytronics.com</t>
+  </si>
+  <si>
+    <t>mgarnica@keytronics.com</t>
+  </si>
+  <si>
+    <t>rjimenez@keytronics.com</t>
+  </si>
+  <si>
+    <t>lmarquez@keytronics.com</t>
+  </si>
+  <si>
+    <t>gmartinez@keytronics.com</t>
+  </si>
+  <si>
+    <t>bmuñoz@keytronics.com</t>
+  </si>
+  <si>
+    <t>fcordova@keytronics.com</t>
+  </si>
+  <si>
+    <t>vcamacho@keytronics.com</t>
+  </si>
+  <si>
+    <t>omorales@keytronics.com</t>
+  </si>
+  <si>
+    <t>omoralesr@keytronics.com</t>
+  </si>
+  <si>
+    <t>grojas@keytronics.com</t>
+  </si>
+  <si>
+    <t>mubaldo@keytronics.com</t>
+  </si>
+  <si>
+    <t>dvargas@keytronics.com</t>
+  </si>
+  <si>
+    <t>dvargasr@keytronics.com</t>
+  </si>
+  <si>
+    <t>oflores@keytronics.com</t>
+  </si>
+  <si>
+    <t>jzarate@keytronics.com</t>
+  </si>
+  <si>
+    <t>jbenumea@keytronics.com</t>
+  </si>
+  <si>
+    <t>jjimenez@keytronics.com</t>
+  </si>
+  <si>
+    <t>kvega@keytronics.com</t>
+  </si>
+  <si>
+    <t>kgarcia@keytronics.com</t>
+  </si>
+  <si>
+    <t>ocorona@keytronics.com</t>
+  </si>
+  <si>
+    <t>jluna@keytronics.com</t>
+  </si>
+  <si>
+    <t>jlunar@keytronics.com</t>
+  </si>
+  <si>
+    <t>msoto@keytronics.com</t>
+  </si>
+  <si>
+    <t>mariza@keytronics.com</t>
+  </si>
+  <si>
+    <t>nortega@keytronics.com</t>
+  </si>
+  <si>
+    <t>hcolin@keytronics.com</t>
+  </si>
+  <si>
+    <t>hcolinr@keytronics.com</t>
+  </si>
+  <si>
+    <t>gcruz@keytronics.com</t>
+  </si>
+  <si>
+    <t>acampo@keytronics.com</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,16 +820,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -837,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -860,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -883,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -906,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -929,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -952,7 +955,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -975,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -998,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -1021,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
@@ -1044,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
@@ -1067,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
@@ -1090,7 +1093,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -1113,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -1136,7 +1139,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -1159,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
@@ -1182,7 +1185,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
@@ -1205,7 +1208,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
@@ -1228,7 +1231,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -1251,7 +1254,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -1274,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -1297,7 +1300,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>62</v>
@@ -1320,7 +1323,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>63</v>
@@ -1343,7 +1346,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -1366,7 +1369,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1389,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>66</v>
@@ -1412,7 +1415,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
@@ -1435,7 +1438,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
@@ -1458,7 +1461,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
         <v>69</v>
@@ -1481,7 +1484,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
         <v>70</v>
@@ -1504,7 +1507,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>123456</v>
@@ -1527,7 +1530,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <v>123456</v>
@@ -1550,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>123456</v>
@@ -1573,7 +1576,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>71</v>
@@ -1596,7 +1599,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
@@ -1619,7 +1622,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
@@ -1642,7 +1645,7 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>74</v>
@@ -1665,7 +1668,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
         <v>75</v>
@@ -1688,7 +1691,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
         <v>76</v>
@@ -1711,7 +1714,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
         <v>77</v>

--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Vacaciones_keytronics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126D343F-61B6-49F4-B895-EDF1008D1278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DBD7BA-DA59-46EC-876F-E7FC70D5DD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2017387C-E726-409B-B94E-7E99E2D436B1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t>acampo@keytronics.com</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Humberto</t>
+  </si>
+  <si>
+    <t>correo@prueba.com</t>
   </si>
 </sst>
 </file>
@@ -790,7 +799,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,6 +863,15 @@
       <c r="G2" s="2">
         <v>45292</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1732,8 +1750,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C32" r:id="rId1" xr:uid="{CC007ADD-1529-470E-B90E-F900F5D05F68}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{0D8D4B43-1EB0-496A-B7C4-4842697D1712}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>